--- a/data/trans_dic/iP13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP13_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>7,44%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,84</t>
+          <t>0,0; 19,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,49</t>
+          <t>0; 6,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,08</t>
+          <t>0,0; 24,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,22</t>
+          <t>0,0; 18,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 8,01</t>
+          <t>0,0; 26,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,73</t>
+          <t>2,95; 26,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 8,85</t>
+          <t>0,0; 13,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,78</t>
+          <t>0,0; 30,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,43</t>
+          <t>1,75; 16,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,74</t>
+          <t>1,49; 14,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 7,29</t>
+          <t>1,14; 13,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,73</t>
+          <t>1,88; 20,8</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,47</t>
+          <t>3,75; 8,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,77</t>
+          <t>3,15; 8,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,68</t>
+          <t>2,99; 8,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 12,02</t>
+          <t>3,44; 8,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,99</t>
+          <t>3,14; 8,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,39</t>
+          <t>4,14; 9,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,3</t>
+          <t>3,79; 8,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 9,6</t>
+          <t>3,38; 8,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,82</t>
+          <t>3,78; 7,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,07</t>
+          <t>4,15; 7,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,16</t>
+          <t>3,82; 7,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,64</t>
+          <t>3,92; 7,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,57 +1076,57 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,64</t>
+          <t>2,86; 8,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>6,15; 13,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,58</t>
+          <t>3,49; 9,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,47</t>
+          <t>4,83; 12,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,26</t>
+          <t>3,95; 10,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 26,83</t>
+          <t>2,51; 8,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,36</t>
+          <t>3,83; 9,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,2</t>
+          <t>4,16; 11,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 16,32</t>
+          <t>3,95; 8,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 14,6</t>
+          <t>5,11; 9,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 13,79</t>
+          <t>4,33; 8,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 20,8</t>
+          <t>5,33; 10,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,56</t>
+          <t>2,63; 7,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,61</t>
+          <t>3,23; 8,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,71</t>
+          <t>1,47; 5,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,59</t>
+          <t>5,2; 12,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 10,7</t>
+          <t>0,7; 3,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 8,08</t>
+          <t>2,42; 7,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,77</t>
+          <t>3,22; 8,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 11,56</t>
+          <t>3,34; 9,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,76</t>
+          <t>2,0; 4,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,74</t>
+          <t>3,35; 7,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,67</t>
+          <t>2,7; 6,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,16</t>
+          <t>4,97; 9,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP13_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,64</t>
+          <t>0,0; 19,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,58</t>
+          <t>0,0; 25,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,26</t>
+          <t>0,0; 21,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 26,83</t>
+          <t>3,05; 27,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,36</t>
+          <t>0,0; 13,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 16,32</t>
+          <t>1,81; 15,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 14,6</t>
+          <t>1,47; 14,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 13,79</t>
+          <t>1,2; 17,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,27</t>
+          <t>1,47; 6,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 10,14</t>
+          <t>2,85; 9,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,61</t>
+          <t>0,56; 5,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,08</t>
+          <t>1,98; 8,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 9,09</t>
+          <t>2,62; 9,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 10,14</t>
+          <t>2,57; 10,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,65</t>
+          <t>1,1; 7,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,97</t>
+          <t>1,45; 6,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,64</t>
+          <t>2,59; 6,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,31</t>
+          <t>3,48; 8,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,87</t>
+          <t>1,25; 4,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,84</t>
+          <t>2,35; 6,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,84</t>
+          <t>3,79; 9,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,49</t>
+          <t>3,39; 8,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,08</t>
+          <t>3,29; 7,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,22</t>
+          <t>3,11; 8,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 8,01</t>
+          <t>3,24; 8,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,73</t>
+          <t>3,96; 9,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 8,85</t>
+          <t>3,79; 8,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,78</t>
+          <t>3,27; 8,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,43</t>
+          <t>3,99; 7,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,74</t>
+          <t>4,05; 7,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 7,29</t>
+          <t>3,83; 7,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,73</t>
+          <t>3,81; 7,7</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,56</t>
+          <t>2,94; 8,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,61</t>
+          <t>6,02; 13,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,71</t>
+          <t>3,62; 9,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,59</t>
+          <t>4,92; 12,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 10,7</t>
+          <t>3,57; 10,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 8,08</t>
+          <t>2,57; 8,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,77</t>
+          <t>3,44; 9,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 11,56</t>
+          <t>4,31; 11,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,76</t>
+          <t>4,08; 8,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,74</t>
+          <t>5,0; 9,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,67</t>
+          <t>4,34; 8,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,16</t>
+          <t>5,25; 10,17</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,47</t>
+          <t>2,67; 7,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,77</t>
+          <t>3,25; 8,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,68</t>
+          <t>1,46; 5,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,2; 12,02</t>
+          <t>5,18; 12,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,99</t>
+          <t>0,71; 4,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,39</t>
+          <t>2,39; 7,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,3</t>
+          <t>3,25; 8,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 9,6</t>
+          <t>3,31; 9,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,82</t>
+          <t>2,05; 4,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,07</t>
+          <t>3,41; 7,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,16</t>
+          <t>2,65; 5,86</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,64</t>
+          <t>5,03; 9,56</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,43</t>
+          <t>3,81; 6,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,69</t>
+          <t>4,8; 7,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,78</t>
+          <t>3,35; 5,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,26</t>
+          <t>5,11; 8,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,81</t>
+          <t>3,4; 5,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,14</t>
+          <t>4,02; 7,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,65</t>
+          <t>4,07; 6,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,52</t>
+          <t>4,3; 7,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,62</t>
+          <t>3,86; 5,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,8; 6,85</t>
+          <t>4,76; 6,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 5,97</t>
+          <t>3,89; 5,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,09; 7,4</t>
+          <t>5,11; 7,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP13_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,91</t>
+          <t>0,0; 24,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,59 +734,59 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 23,8</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 21,75</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 25,47</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 18,47</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 21,98</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 27,13</t>
+          <t>1,42; 27,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,43</t>
+          <t>0,0; 13,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,2</t>
+          <t>0,0; 28,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 15,54</t>
+          <t>1,75; 17,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 14,1</t>
+          <t>1,45; 12,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 17,04</t>
+          <t>1,18; 15,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 20,8</t>
+          <t>1,8; 21,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,86</t>
+          <t>1,47; 6,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,94</t>
+          <t>2,78; 9,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,11</t>
+          <t>0,56; 5,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 8,88</t>
+          <t>2,11; 8,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 9,77</t>
+          <t>2,24; 9,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 10,45</t>
+          <t>2,63; 10,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,09</t>
+          <t>1,17; 7,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,83</t>
+          <t>1,5; 7,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,55</t>
+          <t>2,6; 6,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,82</t>
+          <t>3,34; 8,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,88</t>
+          <t>1,22; 4,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,67</t>
+          <t>2,47; 6,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 9,05</t>
+          <t>3,72; 8,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,55</t>
+          <t>3,27; 8,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 7,93</t>
+          <t>3,34; 7,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,51</t>
+          <t>3,32; 8,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 8,13</t>
+          <t>2,88; 8,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,55</t>
+          <t>4,09; 9,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 8,73</t>
+          <t>3,92; 8,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,45</t>
+          <t>3,19; 8,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,37</t>
+          <t>3,9; 7,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,69</t>
+          <t>4,22; 7,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,33</t>
+          <t>3,74; 7,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,7</t>
+          <t>3,98; 7,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,92</t>
+          <t>2,97; 9,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 13,4</t>
+          <t>5,93; 13,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,54</t>
+          <t>3,67; 9,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,07</t>
+          <t>4,45; 11,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 10,16</t>
+          <t>3,93; 10,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,32</t>
+          <t>2,36; 8,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,41</t>
+          <t>3,88; 9,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 11,03</t>
+          <t>4,04; 11,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,3</t>
+          <t>3,98; 8,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 9,69</t>
+          <t>5,1; 10,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,66</t>
+          <t>4,48; 8,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,17</t>
+          <t>5,25; 10,37</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,47</t>
+          <t>2,39; 7,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,96</t>
+          <t>3,25; 8,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,4</t>
+          <t>1,42; 5,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 12,45</t>
+          <t>5,36; 13,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,35</t>
+          <t>0,69; 3,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,22</t>
+          <t>2,44; 7,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,84</t>
+          <t>3,17; 8,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,68</t>
+          <t>3,09; 9,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,82</t>
+          <t>2,03; 4,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,13</t>
+          <t>3,4; 7,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,86</t>
+          <t>2,75; 6,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,56</t>
+          <t>4,97; 9,61</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,27</t>
+          <t>3,86; 6,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,67</t>
+          <t>4,77; 7,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,82</t>
+          <t>3,33; 5,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,36</t>
+          <t>5,15; 8,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,99</t>
+          <t>3,31; 5,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,02</t>
+          <t>4,32; 7,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,66</t>
+          <t>4,08; 6,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,57</t>
+          <t>4,39; 7,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,71</t>
+          <t>3,88; 5,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,76; 6,85</t>
+          <t>4,82; 6,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,82</t>
+          <t>3,99; 5,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,34</t>
+          <t>5,16; 7,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP13_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>4,38%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,14</t>
+          <t>2,92; 9,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>3,11; 10,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,8</t>
+          <t>1,04; 5,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,75</t>
+          <t>2,04; 8,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,47</t>
+          <t>2,06; 6,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 27,03</t>
+          <t>2,49; 8,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,36</t>
+          <t>1,35; 6,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,71</t>
+          <t>2,19; 8,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 17,19</t>
+          <t>3,08; 7,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 12,7</t>
+          <t>3,47; 8,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 15,24</t>
+          <t>1,68; 5,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 21,44</t>
+          <t>2,67; 6,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,64</t>
+          <t>3,14; 8,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,7</t>
+          <t>4,14; 9,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,47</t>
+          <t>3,79; 8,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 8,71</t>
+          <t>3,37; 8,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,52</t>
+          <t>3,75; 8,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,53</t>
+          <t>3,15; 8,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 7,29</t>
+          <t>2,99; 8,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,22</t>
+          <t>3,38; 8,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,9</t>
+          <t>3,78; 7,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,7</t>
+          <t>4,15; 7,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,78</t>
+          <t>3,82; 7,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,91</t>
+          <t>3,87; 7,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>5,3%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,17%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,79</t>
+          <t>3,95; 10,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,25</t>
+          <t>2,51; 8,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,99</t>
+          <t>3,83; 9,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,79</t>
+          <t>3,18; 9,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 8,04</t>
+          <t>2,86; 8,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 9,64</t>
+          <t>6,15; 13,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,75</t>
+          <t>3,49; 9,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,51</t>
+          <t>4,65; 12,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,53</t>
+          <t>3,95; 8,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,8</t>
+          <t>5,11; 9,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,32</t>
+          <t>4,33; 8,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,5</t>
+          <t>4,81; 9,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 9,22</t>
+          <t>0,7; 3,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 13,52</t>
+          <t>2,42; 7,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,43</t>
+          <t>3,22; 8,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 11,67</t>
+          <t>3,34; 9,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,51</t>
+          <t>2,63; 7,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,13</t>
+          <t>3,23; 8,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 9,8</t>
+          <t>1,47; 5,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 11,13</t>
+          <t>5,29; 12,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,28</t>
+          <t>2,0; 4,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,06</t>
+          <t>3,35; 7,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,67</t>
+          <t>2,7; 6,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,37</t>
+          <t>5,01; 9,87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,66</t>
+          <t>3,22; 5,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,89</t>
+          <t>4,19; 7,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,54</t>
+          <t>4,03; 6,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 13,22</t>
+          <t>4,24; 7,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,82</t>
+          <t>3,79; 6,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,35</t>
+          <t>4,81; 7,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,86</t>
+          <t>3,27; 5,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,33</t>
+          <t>5,04; 8,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,96</t>
+          <t>3,84; 5,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,09</t>
+          <t>4,8; 6,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,14</t>
+          <t>4,04; 5,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,61</t>
+          <t>4,98; 7,25</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,8%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,86; 6,51</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,77; 7,72</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 5,83</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,15; 8,38</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 5,88</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 7,23</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,08; 6,87</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,39; 7,63</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 5,6</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 6,89</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 5,8</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 7,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
